--- a/sources/housing-census-1930-40-50.xlsx
+++ b/sources/housing-census-1930-40-50.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10510"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jdoughe2/GitHub/otl-redlining/sources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3B46C25-01D9-7445-BC13-9AC8997C8930}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{385D51FB-991B-5A40-9500-8C1406DC9EE9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-17440" yWindow="740" windowWidth="18620" windowHeight="16580" activeTab="1" xr2:uid="{98A1562C-A17F-104C-BE4D-664AC1AE501B}"/>
+    <workbookView xWindow="10720" yWindow="460" windowWidth="18000" windowHeight="15640" activeTab="2" xr2:uid="{98A1562C-A17F-104C-BE4D-664AC1AE501B}"/>
   </bookViews>
   <sheets>
     <sheet name="1930 housing" sheetId="5" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="109">
   <si>
     <t>1940 Housing Census comparisons with Michney and Winling (2020)</t>
   </si>
@@ -361,6 +361,9 @@
   </si>
   <si>
     <t>and Table 22: Occupancy, Tenure, Race Pop Per Unit … by Counties, p413</t>
+  </si>
+  <si>
+    <t>1940 Census of Housing, Part 2 States, Connecticut, Table 1: Occupied Dwelling Units p.393</t>
   </si>
 </sst>
 </file>
@@ -371,7 +374,7 @@
     <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="166" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -420,7 +423,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -431,8 +434,9 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -869,8 +873,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{115F856E-F032-D446-98E6-A934529AB574}">
   <dimension ref="A1:I42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10:G12"/>
+    <sheetView topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1078,27 +1082,27 @@
         <v>12</v>
       </c>
       <c r="B10" s="1">
-        <f>B8/B6</f>
+        <f t="shared" ref="B10:D11" si="1">B8/B6</f>
         <v>0.35513394985222613</v>
       </c>
       <c r="C10" s="1">
-        <f>C8/C6</f>
+        <f t="shared" si="1"/>
         <v>0.17876607290314969</v>
       </c>
       <c r="D10" s="1">
-        <f>D8/D6</f>
+        <f t="shared" si="1"/>
         <v>0.36465406928819838</v>
       </c>
       <c r="E10" s="1">
-        <f t="shared" ref="E10:I10" si="1">E8/E6</f>
+        <f t="shared" ref="E10:I10" si="2">E8/E6</f>
         <v>0.29149159663865548</v>
       </c>
       <c r="F10" s="1">
-        <f t="shared" ref="F10:G10" si="2">F8/F6</f>
+        <f t="shared" ref="F10:G10" si="3">F8/F6</f>
         <v>0.35747280584115632</v>
       </c>
       <c r="G10" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.58941216140272001</v>
       </c>
       <c r="H10" s="1">
@@ -1106,7 +1110,7 @@
         <v>0.27617083485615829</v>
       </c>
       <c r="I10" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.26918730345911951</v>
       </c>
     </row>
@@ -1115,27 +1119,27 @@
         <v>11</v>
       </c>
       <c r="B11" s="1">
-        <f>B9/B7</f>
+        <f t="shared" si="1"/>
         <v>0.10523683971270116</v>
       </c>
       <c r="C11" s="1">
-        <f>C9/C7</f>
+        <f t="shared" si="1"/>
         <v>6.3704496788008561E-2</v>
       </c>
       <c r="D11" s="1">
-        <f>D9/D7</f>
+        <f t="shared" si="1"/>
         <v>0.1214491560312886</v>
       </c>
       <c r="E11" s="1">
-        <f t="shared" ref="E11:I11" si="3">E9/E7</f>
+        <f t="shared" ref="E11:I11" si="4">E9/E7</f>
         <v>0.10833333333333334</v>
       </c>
       <c r="F11" s="1">
-        <f t="shared" ref="F11:G11" si="4">F9/F7</f>
+        <f t="shared" ref="F11:G11" si="5">F9/F7</f>
         <v>0.12806188225182638</v>
       </c>
       <c r="G11" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.83333333333333337</v>
       </c>
       <c r="H11" s="1">
@@ -1143,7 +1147,7 @@
         <v>0.12815533980582525</v>
       </c>
       <c r="I11" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>8.9527027027027029E-2</v>
       </c>
     </row>
@@ -1164,15 +1168,15 @@
         <v>3.002524523054352</v>
       </c>
       <c r="E12" s="2">
-        <f t="shared" ref="E12:I12" si="5">E10/E11</f>
+        <f t="shared" ref="E12:I12" si="6">E10/E11</f>
         <v>2.6906916612798968</v>
       </c>
       <c r="F12" s="2">
-        <f t="shared" ref="F12:G12" si="6">F10/F11</f>
+        <f t="shared" ref="F12:G12" si="7">F10/F11</f>
         <v>2.791406775813325</v>
       </c>
       <c r="G12" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.70729459368326397</v>
       </c>
       <c r="H12" s="2">
@@ -1180,7 +1184,7 @@
         <v>2.1549693931957803</v>
       </c>
       <c r="I12" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>3.0067713895811083</v>
       </c>
     </row>
@@ -1191,7 +1195,7 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
@@ -1359,16 +1363,16 @@
         <f>B27/B24</f>
         <v>0.29887945670628185</v>
       </c>
-      <c r="C30" s="1">
-        <f t="shared" ref="C30:I30" si="7">C27/C24</f>
+      <c r="C30" s="10">
+        <f t="shared" ref="C30:I30" si="8">C27/C24</f>
         <v>6.8699012451696004E-2</v>
       </c>
       <c r="D30" s="1">
-        <f t="shared" ref="D30" si="8">D27/D24</f>
+        <f t="shared" ref="D30" si="9">D27/D24</f>
         <v>6.7066120046252495E-2</v>
       </c>
       <c r="E30" s="1" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
       <c r="F30" s="1"/>
@@ -1378,7 +1382,7 @@
         <v>9.7037484885126965E-2</v>
       </c>
       <c r="I30" s="1" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -1390,16 +1394,16 @@
         <f>B28/B25</f>
         <v>0.32107023411371238</v>
       </c>
-      <c r="C31" s="1">
-        <f t="shared" ref="C31:I31" si="9">C28/C25</f>
+      <c r="C31" s="10">
+        <f t="shared" ref="C31:I31" si="10">C28/C25</f>
         <v>0.12820512820512819</v>
       </c>
       <c r="D31" s="1">
-        <f t="shared" ref="D31" si="10">D28/D25</f>
+        <f t="shared" ref="D31" si="11">D28/D25</f>
         <v>7.476635514018691E-2</v>
       </c>
       <c r="E31" s="1" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
       <c r="F31" s="1"/>
@@ -1409,7 +1413,7 @@
         <v>7.5471698113207544E-2</v>
       </c>
       <c r="I31" s="1" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -1422,15 +1426,15 @@
         <v>0.35714285714285715</v>
       </c>
       <c r="C32" s="1">
-        <f t="shared" ref="C32:I32" si="11">C29/C26</f>
+        <f t="shared" ref="C32:I32" si="12">C29/C26</f>
         <v>0</v>
       </c>
       <c r="D32" s="1">
-        <f t="shared" ref="D32" si="12">D29/D26</f>
+        <f t="shared" ref="D32" si="13">D29/D26</f>
         <v>0</v>
       </c>
       <c r="E32" s="1" t="e">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
       <c r="F32" s="1"/>
@@ -1440,7 +1444,7 @@
         <v>0</v>
       </c>
       <c r="I32" s="1" t="e">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -1494,7 +1498,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9607C0CF-1FB1-E44C-B857-DA0E19912A45}">
   <dimension ref="A1:L13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
@@ -2810,7 +2814,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1120D50D-2046-1842-B023-21F8B18460D8}">
   <dimension ref="A1:J30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A9" workbookViewId="0">
       <selection activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
